--- a/안재헌/개인 일정.xlsx
+++ b/안재헌/개인 일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coding.ASB\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coding.ASB\Desktop\log\teamlog\안재헌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBABE995-34E9-4E2D-A33D-17B5FBDC7049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F97071-2947-4B9F-B1AE-AF642BEB3318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22815" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22815" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문의하기" sheetId="2" r:id="rId1"/>
@@ -679,34 +679,151 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,9 +847,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,120 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2333,7 +2333,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2347,79 +2347,79 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:56" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="33" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="33" t="s">
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="33" t="s">
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="33" t="s">
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="33" t="s">
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="35"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="61"/>
       <c r="BB3" s="21"/>
       <c r="BC3" s="21"/>
-      <c r="BD3" s="36"/>
+      <c r="BD3" s="49"/>
     </row>
     <row r="4" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
@@ -2428,7 +2428,7 @@
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="32" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="27" t="s">
@@ -2584,74 +2584,74 @@
       <c r="BC4" s="27">
         <v>31</v>
       </c>
-      <c r="BD4" s="37"/>
+      <c r="BD4" s="51"/>
     </row>
     <row r="5" spans="2:56" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="40"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="63"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="64"/>
     </row>
     <row r="6" spans="2:56" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
@@ -2664,61 +2664,61 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
-      <c r="P6" s="61" t="s">
+      <c r="P6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="80" t="s">
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="55"/>
-      <c r="BB6" s="56"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="70"/>
       <c r="BC6" s="25"/>
-      <c r="BD6" s="41"/>
+      <c r="BD6" s="50"/>
     </row>
     <row r="7" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
-      <c r="C7" s="65" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -2735,49 +2735,49 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="68"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="19"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="67"/>
+      <c r="Y7" s="34"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="68"/>
+      <c r="AC7" s="35"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
-      <c r="AJ7" s="68"/>
+      <c r="AJ7" s="35"/>
       <c r="AK7" s="19"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
-      <c r="AQ7" s="68"/>
+      <c r="AQ7" s="35"/>
       <c r="AR7" s="19"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="29"/>
       <c r="AU7" s="29"/>
       <c r="AV7" s="29"/>
       <c r="AW7" s="29"/>
-      <c r="AX7" s="81"/>
-      <c r="AY7" s="77"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="42"/>
       <c r="AZ7" s="28"/>
       <c r="BA7" s="28"/>
       <c r="BB7" s="28"/>
       <c r="BC7" s="25"/>
-      <c r="BD7" s="41"/>
+      <c r="BD7" s="50"/>
     </row>
     <row r="8" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="59" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -2794,49 +2794,49 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="68"/>
+      <c r="V8" s="35"/>
       <c r="W8" s="19"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="67"/>
+      <c r="Z8" s="34"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="68"/>
+      <c r="AC8" s="35"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
-      <c r="AJ8" s="68"/>
+      <c r="AJ8" s="35"/>
       <c r="AK8" s="19"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
-      <c r="AQ8" s="68"/>
+      <c r="AQ8" s="35"/>
       <c r="AR8" s="19"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="29"/>
       <c r="AU8" s="29"/>
       <c r="AV8" s="29"/>
       <c r="AW8" s="29"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="77"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="42"/>
       <c r="AZ8" s="28"/>
       <c r="BA8" s="28"/>
       <c r="BB8" s="28"/>
       <c r="BC8" s="25"/>
-      <c r="BD8" s="41"/>
+      <c r="BD8" s="50"/>
     </row>
     <row r="9" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="59" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -2853,49 +2853,49 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="68"/>
+      <c r="V9" s="35"/>
       <c r="W9" s="19"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="67"/>
+      <c r="Z9" s="34"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="68"/>
+      <c r="AC9" s="35"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
-      <c r="AJ9" s="68"/>
+      <c r="AJ9" s="35"/>
       <c r="AK9" s="19"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
-      <c r="AQ9" s="68"/>
+      <c r="AQ9" s="35"/>
       <c r="AR9" s="19"/>
       <c r="AS9" s="4"/>
       <c r="AT9" s="29"/>
       <c r="AU9" s="29"/>
       <c r="AV9" s="29"/>
       <c r="AW9" s="29"/>
-      <c r="AX9" s="81"/>
-      <c r="AY9" s="77"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="42"/>
       <c r="AZ9" s="28"/>
       <c r="BA9" s="28"/>
       <c r="BB9" s="28"/>
       <c r="BC9" s="25"/>
-      <c r="BD9" s="41"/>
+      <c r="BD9" s="50"/>
     </row>
     <row r="10" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="59" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -2912,49 +2912,49 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="68"/>
+      <c r="V10" s="35"/>
       <c r="W10" s="19"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="67"/>
+      <c r="AA10" s="34"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="68"/>
+      <c r="AC10" s="35"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
-      <c r="AJ10" s="68"/>
+      <c r="AJ10" s="35"/>
       <c r="AK10" s="19"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
-      <c r="AQ10" s="68"/>
+      <c r="AQ10" s="35"/>
       <c r="AR10" s="19"/>
       <c r="AS10" s="4"/>
       <c r="AT10" s="29"/>
       <c r="AU10" s="29"/>
       <c r="AV10" s="29"/>
       <c r="AW10" s="29"/>
-      <c r="AX10" s="81"/>
-      <c r="AY10" s="77"/>
+      <c r="AX10" s="45"/>
+      <c r="AY10" s="42"/>
       <c r="AZ10" s="28"/>
       <c r="BA10" s="28"/>
       <c r="BB10" s="28"/>
       <c r="BC10" s="25"/>
-      <c r="BD10" s="41"/>
+      <c r="BD10" s="50"/>
     </row>
     <row r="11" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="59" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -2971,49 +2971,49 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="68"/>
+      <c r="V11" s="35"/>
       <c r="W11" s="19"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="68"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
-      <c r="AJ11" s="68"/>
+      <c r="AJ11" s="35"/>
       <c r="AK11" s="19"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
-      <c r="AQ11" s="68"/>
+      <c r="AQ11" s="35"/>
       <c r="AR11" s="19"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="29"/>
       <c r="AU11" s="29"/>
       <c r="AV11" s="29"/>
       <c r="AW11" s="29"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="77"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="42"/>
       <c r="AZ11" s="28"/>
       <c r="BA11" s="28"/>
       <c r="BB11" s="28"/>
       <c r="BC11" s="25"/>
-      <c r="BD11" s="41"/>
+      <c r="BD11" s="50"/>
     </row>
     <row r="12" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="59" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -3030,49 +3030,49 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="68"/>
+      <c r="V12" s="35"/>
       <c r="W12" s="19"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="72"/>
+      <c r="AC12" s="38"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
-      <c r="AJ12" s="68"/>
+      <c r="AJ12" s="35"/>
       <c r="AK12" s="19"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="68"/>
+      <c r="AQ12" s="35"/>
       <c r="AR12" s="19"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="29"/>
       <c r="AU12" s="29"/>
       <c r="AV12" s="29"/>
       <c r="AW12" s="29"/>
-      <c r="AX12" s="81"/>
-      <c r="AY12" s="77"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="42"/>
       <c r="AZ12" s="28"/>
       <c r="BA12" s="28"/>
       <c r="BB12" s="28"/>
       <c r="BC12" s="25"/>
-      <c r="BD12" s="41"/>
+      <c r="BD12" s="50"/>
     </row>
     <row r="13" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="59" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -3089,51 +3089,51 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="68"/>
+      <c r="V13" s="35"/>
       <c r="W13" s="19"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="68"/>
+      <c r="AC13" s="35"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="68"/>
+      <c r="AJ13" s="35"/>
       <c r="AK13" s="19"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="67"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="34"/>
       <c r="AT13" s="29"/>
       <c r="AU13" s="29"/>
       <c r="AV13" s="29"/>
       <c r="AW13" s="29"/>
-      <c r="AX13" s="81"/>
-      <c r="AY13" s="77"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="42"/>
       <c r="AZ13" s="28"/>
       <c r="BA13" s="28"/>
       <c r="BB13" s="28"/>
       <c r="BC13" s="25"/>
-      <c r="BD13" s="41"/>
+      <c r="BD13" s="50"/>
     </row>
     <row r="14" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-      <c r="C14" s="65" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -3150,49 +3150,49 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="68"/>
+      <c r="V14" s="35"/>
       <c r="W14" s="19"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="71"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="37"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
-      <c r="AJ14" s="68"/>
+      <c r="AJ14" s="35"/>
       <c r="AK14" s="19"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
-      <c r="AQ14" s="68"/>
+      <c r="AQ14" s="35"/>
       <c r="AR14" s="19"/>
       <c r="AS14" s="4"/>
       <c r="AT14" s="29"/>
       <c r="AU14" s="29"/>
       <c r="AV14" s="29"/>
       <c r="AW14" s="29"/>
-      <c r="AX14" s="81"/>
-      <c r="AY14" s="77"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="42"/>
       <c r="AZ14" s="28"/>
       <c r="BA14" s="28"/>
       <c r="BB14" s="28"/>
       <c r="BC14" s="25"/>
-      <c r="BD14" s="41"/>
+      <c r="BD14" s="50"/>
     </row>
     <row r="15" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="59" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -3209,49 +3209,49 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="68"/>
+      <c r="V15" s="35"/>
       <c r="W15" s="19"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="68"/>
+      <c r="AC15" s="35"/>
       <c r="AD15" s="19"/>
-      <c r="AE15" s="67"/>
+      <c r="AE15" s="34"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="68"/>
+      <c r="AJ15" s="35"/>
       <c r="AK15" s="19"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
-      <c r="AQ15" s="68"/>
+      <c r="AQ15" s="35"/>
       <c r="AR15" s="19"/>
       <c r="AS15" s="4"/>
       <c r="AT15" s="29"/>
       <c r="AU15" s="29"/>
       <c r="AV15" s="29"/>
       <c r="AW15" s="29"/>
-      <c r="AX15" s="81"/>
-      <c r="AY15" s="77"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="42"/>
       <c r="AZ15" s="28"/>
       <c r="BA15" s="28"/>
       <c r="BB15" s="28"/>
       <c r="BC15" s="25"/>
-      <c r="BD15" s="41"/>
+      <c r="BD15" s="50"/>
     </row>
     <row r="16" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="59" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -3268,49 +3268,49 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="68"/>
+      <c r="V16" s="35"/>
       <c r="W16" s="19"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="68"/>
+      <c r="AC16" s="35"/>
       <c r="AD16" s="19"/>
-      <c r="AE16" s="67"/>
+      <c r="AE16" s="34"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="68"/>
+      <c r="AJ16" s="35"/>
       <c r="AK16" s="19"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
-      <c r="AQ16" s="68"/>
+      <c r="AQ16" s="35"/>
       <c r="AR16" s="19"/>
       <c r="AS16" s="4"/>
       <c r="AT16" s="29"/>
       <c r="AU16" s="29"/>
       <c r="AV16" s="29"/>
       <c r="AW16" s="29"/>
-      <c r="AX16" s="81"/>
-      <c r="AY16" s="77"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="42"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="28"/>
       <c r="BB16" s="28"/>
       <c r="BC16" s="25"/>
-      <c r="BD16" s="41"/>
+      <c r="BD16" s="50"/>
     </row>
     <row r="17" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -3327,49 +3327,49 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="68"/>
+      <c r="V17" s="35"/>
       <c r="W17" s="19"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="68"/>
+      <c r="AC17" s="35"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="67"/>
+      <c r="AF17" s="34"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AJ17" s="68"/>
+      <c r="AJ17" s="35"/>
       <c r="AK17" s="19"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
-      <c r="AQ17" s="68"/>
+      <c r="AQ17" s="35"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="4"/>
       <c r="AT17" s="29"/>
       <c r="AU17" s="29"/>
       <c r="AV17" s="29"/>
       <c r="AW17" s="29"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="77"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="42"/>
       <c r="AZ17" s="28"/>
       <c r="BA17" s="28"/>
       <c r="BB17" s="28"/>
       <c r="BC17" s="25"/>
-      <c r="BD17" s="41"/>
+      <c r="BD17" s="50"/>
     </row>
     <row r="18" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="59" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -3386,49 +3386,49 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="68"/>
+      <c r="V18" s="35"/>
       <c r="W18" s="19"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="68"/>
+      <c r="AC18" s="35"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="67"/>
+      <c r="AG18" s="34"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
-      <c r="AJ18" s="68"/>
+      <c r="AJ18" s="35"/>
       <c r="AK18" s="19"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
-      <c r="AQ18" s="68"/>
+      <c r="AQ18" s="35"/>
       <c r="AR18" s="19"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="29"/>
       <c r="AU18" s="29"/>
       <c r="AV18" s="29"/>
       <c r="AW18" s="29"/>
-      <c r="AX18" s="81"/>
-      <c r="AY18" s="77"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="42"/>
       <c r="AZ18" s="28"/>
       <c r="BA18" s="28"/>
       <c r="BB18" s="28"/>
       <c r="BC18" s="25"/>
-      <c r="BD18" s="41"/>
+      <c r="BD18" s="50"/>
     </row>
     <row r="19" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="59" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -3445,49 +3445,49 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="68"/>
+      <c r="V19" s="35"/>
       <c r="W19" s="19"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="68"/>
+      <c r="AC19" s="35"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="67"/>
+      <c r="AH19" s="34"/>
       <c r="AI19" s="4"/>
-      <c r="AJ19" s="68"/>
+      <c r="AJ19" s="35"/>
       <c r="AK19" s="19"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="68"/>
+      <c r="AQ19" s="35"/>
       <c r="AR19" s="19"/>
       <c r="AS19" s="4"/>
       <c r="AT19" s="29"/>
       <c r="AU19" s="29"/>
       <c r="AV19" s="29"/>
       <c r="AW19" s="29"/>
-      <c r="AX19" s="81"/>
-      <c r="AY19" s="77"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="42"/>
       <c r="AZ19" s="28"/>
       <c r="BA19" s="28"/>
       <c r="BB19" s="28"/>
       <c r="BC19" s="25"/>
-      <c r="BD19" s="41"/>
+      <c r="BD19" s="50"/>
     </row>
     <row r="20" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="59" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -3504,51 +3504,51 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="68"/>
+      <c r="V20" s="35"/>
       <c r="W20" s="19"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="68"/>
+      <c r="AC20" s="35"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
-      <c r="AJ20" s="68"/>
+      <c r="AJ20" s="35"/>
       <c r="AK20" s="19"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="71"/>
-      <c r="AS20" s="67"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="34"/>
       <c r="AT20" s="29"/>
       <c r="AU20" s="29"/>
       <c r="AV20" s="29"/>
       <c r="AW20" s="29"/>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="77"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="42"/>
       <c r="AZ20" s="28"/>
       <c r="BA20" s="28"/>
       <c r="BB20" s="28"/>
       <c r="BC20" s="25"/>
-      <c r="BD20" s="41"/>
+      <c r="BD20" s="50"/>
     </row>
     <row r="21" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="65" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -3565,49 +3565,49 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="68"/>
+      <c r="V21" s="35"/>
       <c r="W21" s="19"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="68"/>
+      <c r="AC21" s="35"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="68"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="35"/>
       <c r="AK21" s="19"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
-      <c r="AQ21" s="68"/>
+      <c r="AQ21" s="35"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="4"/>
       <c r="AT21" s="29"/>
       <c r="AU21" s="29"/>
       <c r="AV21" s="29"/>
       <c r="AW21" s="29"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="77"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="42"/>
       <c r="AZ21" s="28"/>
       <c r="BA21" s="28"/>
       <c r="BB21" s="28"/>
       <c r="BC21" s="25"/>
-      <c r="BD21" s="41"/>
+      <c r="BD21" s="50"/>
     </row>
     <row r="22" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="59" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -3624,49 +3624,49 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="68"/>
+      <c r="V22" s="35"/>
       <c r="W22" s="19"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="68"/>
+      <c r="AC22" s="35"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="68"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="35"/>
       <c r="AK22" s="19"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
-      <c r="AQ22" s="68"/>
+      <c r="AQ22" s="35"/>
       <c r="AR22" s="19"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="29"/>
       <c r="AU22" s="29"/>
       <c r="AV22" s="29"/>
       <c r="AW22" s="29"/>
-      <c r="AX22" s="81"/>
-      <c r="AY22" s="77"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="42"/>
       <c r="AZ22" s="28"/>
       <c r="BA22" s="28"/>
       <c r="BB22" s="28"/>
       <c r="BC22" s="25"/>
-      <c r="BD22" s="41"/>
+      <c r="BD22" s="50"/>
     </row>
     <row r="23" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="59" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -3683,49 +3683,49 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="68"/>
+      <c r="V23" s="35"/>
       <c r="W23" s="19"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="68"/>
+      <c r="AC23" s="35"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
-      <c r="AJ23" s="72"/>
+      <c r="AJ23" s="38"/>
       <c r="AK23" s="19"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
-      <c r="AQ23" s="68"/>
+      <c r="AQ23" s="35"/>
       <c r="AR23" s="19"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="29"/>
       <c r="AU23" s="29"/>
       <c r="AV23" s="29"/>
       <c r="AW23" s="29"/>
-      <c r="AX23" s="81"/>
-      <c r="AY23" s="77"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="42"/>
       <c r="AZ23" s="28"/>
       <c r="BA23" s="28"/>
       <c r="BB23" s="28"/>
       <c r="BC23" s="25"/>
-      <c r="BD23" s="41"/>
+      <c r="BD23" s="50"/>
     </row>
     <row r="24" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="59" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -3742,49 +3742,49 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="68"/>
+      <c r="V24" s="35"/>
       <c r="W24" s="19"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="68"/>
+      <c r="AC24" s="35"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
-      <c r="AJ24" s="68"/>
-      <c r="AK24" s="71"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="37"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
-      <c r="AQ24" s="68"/>
+      <c r="AQ24" s="35"/>
       <c r="AR24" s="19"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="29"/>
       <c r="AU24" s="29"/>
       <c r="AV24" s="29"/>
       <c r="AW24" s="29"/>
-      <c r="AX24" s="81"/>
-      <c r="AY24" s="77"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="42"/>
       <c r="AZ24" s="28"/>
       <c r="BA24" s="28"/>
       <c r="BB24" s="28"/>
       <c r="BC24" s="25"/>
-      <c r="BD24" s="41"/>
+      <c r="BD24" s="50"/>
     </row>
     <row r="25" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -3801,49 +3801,49 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="68"/>
+      <c r="V25" s="35"/>
       <c r="W25" s="19"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="68"/>
+      <c r="AC25" s="35"/>
       <c r="AD25" s="19"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
-      <c r="AJ25" s="68"/>
+      <c r="AJ25" s="35"/>
       <c r="AK25" s="19"/>
-      <c r="AL25" s="67"/>
+      <c r="AL25" s="34"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
-      <c r="AQ25" s="68"/>
+      <c r="AQ25" s="35"/>
       <c r="AR25" s="19"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="29"/>
       <c r="AU25" s="29"/>
       <c r="AV25" s="29"/>
       <c r="AW25" s="29"/>
-      <c r="AX25" s="81"/>
-      <c r="AY25" s="77"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="42"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="28"/>
       <c r="BB25" s="28"/>
       <c r="BC25" s="25"/>
-      <c r="BD25" s="41"/>
+      <c r="BD25" s="50"/>
     </row>
     <row r="26" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="59" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -3860,49 +3860,49 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="68"/>
+      <c r="V26" s="35"/>
       <c r="W26" s="19"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
-      <c r="AC26" s="68"/>
+      <c r="AC26" s="35"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
-      <c r="AJ26" s="68"/>
+      <c r="AJ26" s="35"/>
       <c r="AK26" s="19"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="67"/>
+      <c r="AM26" s="34"/>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
-      <c r="AQ26" s="68"/>
+      <c r="AQ26" s="35"/>
       <c r="AR26" s="19"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="29"/>
       <c r="AU26" s="29"/>
       <c r="AV26" s="29"/>
       <c r="AW26" s="29"/>
-      <c r="AX26" s="81"/>
-      <c r="AY26" s="77"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="42"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="28"/>
       <c r="BB26" s="28"/>
       <c r="BC26" s="25"/>
-      <c r="BD26" s="41"/>
+      <c r="BD26" s="50"/>
     </row>
     <row r="27" spans="2:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="59" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -3919,41 +3919,41 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="68"/>
+      <c r="V27" s="35"/>
       <c r="W27" s="19"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
-      <c r="AC27" s="68"/>
+      <c r="AC27" s="35"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
-      <c r="AJ27" s="68"/>
+      <c r="AJ27" s="35"/>
       <c r="AK27" s="19"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="67"/>
-      <c r="AO27" s="67"/>
-      <c r="AP27" s="67"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="71"/>
-      <c r="AS27" s="67"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="37"/>
+      <c r="AS27" s="34"/>
       <c r="AT27" s="29"/>
       <c r="AU27" s="29"/>
       <c r="AV27" s="29"/>
       <c r="AW27" s="29"/>
-      <c r="AX27" s="81"/>
-      <c r="AY27" s="77"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="42"/>
       <c r="AZ27" s="28"/>
       <c r="BA27" s="28"/>
       <c r="BB27" s="28"/>
       <c r="BC27" s="25"/>
-      <c r="BD27" s="41"/>
+      <c r="BD27" s="50"/>
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
@@ -3980,41 +3980,41 @@
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
-      <c r="V28" s="69"/>
+      <c r="V28" s="36"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
       <c r="Z28" s="27"/>
       <c r="AA28" s="27"/>
       <c r="AB28" s="27"/>
-      <c r="AC28" s="69"/>
+      <c r="AC28" s="36"/>
       <c r="AD28" s="26"/>
       <c r="AE28" s="27"/>
       <c r="AF28" s="27"/>
       <c r="AG28" s="27"/>
       <c r="AH28" s="27"/>
       <c r="AI28" s="27"/>
-      <c r="AJ28" s="69"/>
+      <c r="AJ28" s="36"/>
       <c r="AK28" s="26"/>
       <c r="AL28" s="27"/>
       <c r="AM28" s="27"/>
       <c r="AN28" s="27"/>
       <c r="AO28" s="30"/>
       <c r="AP28" s="30"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="75"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="40"/>
       <c r="AS28" s="30"/>
       <c r="AT28" s="20"/>
       <c r="AU28" s="20"/>
       <c r="AV28" s="20"/>
       <c r="AW28" s="20"/>
-      <c r="AX28" s="82"/>
-      <c r="AY28" s="78"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="43"/>
       <c r="AZ28" s="20"/>
       <c r="BA28" s="20"/>
       <c r="BB28" s="20"/>
       <c r="BC28" s="31"/>
-      <c r="BD28" s="41"/>
+      <c r="BD28" s="50"/>
     </row>
     <row r="29" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
@@ -4039,94 +4039,77 @@
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
-      <c r="V29" s="69"/>
+      <c r="V29" s="36"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
       <c r="Z29" s="27"/>
       <c r="AA29" s="27"/>
       <c r="AB29" s="27"/>
-      <c r="AC29" s="69"/>
+      <c r="AC29" s="36"/>
       <c r="AD29" s="26"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
       <c r="AH29" s="27"/>
       <c r="AI29" s="27"/>
-      <c r="AJ29" s="69"/>
+      <c r="AJ29" s="36"/>
       <c r="AK29" s="26"/>
       <c r="AL29" s="27"/>
       <c r="AM29" s="27"/>
       <c r="AN29" s="27"/>
       <c r="AO29" s="30"/>
       <c r="AP29" s="30"/>
-      <c r="AQ29" s="76"/>
-      <c r="AR29" s="75"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="40"/>
       <c r="AS29" s="30"/>
       <c r="AT29" s="30"/>
       <c r="AU29" s="30"/>
       <c r="AV29" s="30"/>
       <c r="AW29" s="30"/>
-      <c r="AX29" s="76"/>
-      <c r="AY29" s="79"/>
+      <c r="AX29" s="41"/>
+      <c r="AY29" s="44"/>
       <c r="AZ29" s="31"/>
       <c r="BA29" s="31"/>
       <c r="BB29" s="31"/>
       <c r="BC29" s="20"/>
-      <c r="BD29" s="37"/>
+      <c r="BD29" s="51"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.3">
       <c r="F31" s="22"/>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.3">
       <c r="F32" s="23"/>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F33" s="24"/>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR6:AX6"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="B6:B27"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="F5:BD5"/>
     <mergeCell ref="BD6:BD29"/>
     <mergeCell ref="P6:V6"/>
     <mergeCell ref="AY6:BB6"/>
@@ -4136,6 +4119,23 @@
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W3:AC3"/>
     <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="F5:BD5"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="B6:B27"/>
+    <mergeCell ref="AR6:AX6"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="E7:E13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -4158,1349 +4158,1301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="84"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="91">
+      <c r="A1" s="80"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="72">
         <v>45047</v>
       </c>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="91">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="72">
         <v>45048</v>
       </c>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="91">
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="72">
         <v>45049</v>
       </c>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="91">
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="72">
         <v>45050</v>
       </c>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="88">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="79">
         <v>5</v>
       </c>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="88"/>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="79"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="91">
+      <c r="A7" s="72">
         <v>45051</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="91">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
         <v>45052</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="91">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="72">
         <v>45053</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="91">
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="72">
         <v>45054</v>
       </c>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="91">
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="72">
         <v>45055</v>
       </c>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="91">
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="72">
         <v>45056</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="91">
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="72">
         <v>45057</v>
       </c>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="85" t="s">
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="85" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="85"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="74"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="91">
+      <c r="A13" s="72">
         <v>45058</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="91">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="72">
         <v>45059</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="91">
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72">
         <v>45060</v>
       </c>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="91">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="72">
         <v>45061</v>
       </c>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="91">
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="72">
         <v>45062</v>
       </c>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="91">
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="72">
         <v>45063</v>
       </c>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="91">
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="72">
         <v>45064</v>
       </c>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="85"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="74"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="91">
+      <c r="A19" s="72">
         <v>45065</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="91">
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="72">
         <v>45066</v>
       </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="91">
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="72">
         <v>45067</v>
       </c>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="91">
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="72">
         <v>45068</v>
       </c>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="91">
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="72">
         <v>45069</v>
       </c>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="91">
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="72">
         <v>45070</v>
       </c>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="91">
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="72">
         <v>45071</v>
       </c>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="85"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="74"/>
+      <c r="AL19" s="74"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="86"/>
-      <c r="AE24" s="86"/>
-      <c r="AF24" s="86"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="86"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="56"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="91">
+      <c r="A25" s="72">
         <v>45072</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="91">
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="72">
         <v>45073</v>
       </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="91">
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="72">
         <v>45074</v>
       </c>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="91">
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="72">
         <v>45075</v>
       </c>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="91">
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="72">
         <v>45076</v>
       </c>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="91">
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="72">
         <v>45077</v>
       </c>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="85"/>
-      <c r="AL25" s="85"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86" t="s">
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="90" t="s">
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="58"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="86"/>
-      <c r="AF27" s="86"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="86"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="58"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="86"/>
-      <c r="AF28" s="86"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="86"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="86"/>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="58"/>
-      <c r="AL29" s="58"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="86"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="86"/>
-      <c r="AI30" s="86"/>
-      <c r="AJ30" s="58"/>
-      <c r="AK30" s="58"/>
-      <c r="AL30" s="58"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="A26:E30"/>
-    <mergeCell ref="F26:J30"/>
-    <mergeCell ref="K26:O30"/>
-    <mergeCell ref="P26:T30"/>
-    <mergeCell ref="U26:Y30"/>
-    <mergeCell ref="Z26:AD30"/>
-    <mergeCell ref="AE26:AI30"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="A20:E24"/>
-    <mergeCell ref="F20:J24"/>
-    <mergeCell ref="K20:O24"/>
-    <mergeCell ref="P20:T24"/>
-    <mergeCell ref="U20:Y24"/>
-    <mergeCell ref="Z20:AD24"/>
-    <mergeCell ref="AE20:AI24"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="A14:E18"/>
-    <mergeCell ref="F14:J18"/>
-    <mergeCell ref="K14:O18"/>
-    <mergeCell ref="P14:T18"/>
-    <mergeCell ref="U14:Y18"/>
-    <mergeCell ref="Z14:AD18"/>
-    <mergeCell ref="AE14:AI18"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="A2:E6"/>
+    <mergeCell ref="F2:J6"/>
+    <mergeCell ref="K2:O6"/>
+    <mergeCell ref="P2:T6"/>
+    <mergeCell ref="U2:Y6"/>
+    <mergeCell ref="Z2:AD6"/>
+    <mergeCell ref="AE2:AI6"/>
+    <mergeCell ref="AJ2:AL6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
     <mergeCell ref="AE7:AI7"/>
     <mergeCell ref="AJ7:AL7"/>
     <mergeCell ref="A8:E12"/>
@@ -5517,22 +5469,70 @@
     <mergeCell ref="P7:T7"/>
     <mergeCell ref="U7:Y7"/>
     <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="A2:E6"/>
-    <mergeCell ref="F2:J6"/>
-    <mergeCell ref="K2:O6"/>
-    <mergeCell ref="P2:T6"/>
-    <mergeCell ref="U2:Y6"/>
-    <mergeCell ref="Z2:AD6"/>
-    <mergeCell ref="AE2:AI6"/>
-    <mergeCell ref="AJ2:AL6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="A14:E18"/>
+    <mergeCell ref="F14:J18"/>
+    <mergeCell ref="K14:O18"/>
+    <mergeCell ref="P14:T18"/>
+    <mergeCell ref="U14:Y18"/>
+    <mergeCell ref="Z14:AD18"/>
+    <mergeCell ref="AE14:AI18"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="A20:E24"/>
+    <mergeCell ref="F20:J24"/>
+    <mergeCell ref="K20:O24"/>
+    <mergeCell ref="P20:T24"/>
+    <mergeCell ref="U20:Y24"/>
+    <mergeCell ref="Z20:AD24"/>
+    <mergeCell ref="AE20:AI24"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z26:AD30"/>
+    <mergeCell ref="AE26:AI30"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="A26:E30"/>
+    <mergeCell ref="F26:J30"/>
+    <mergeCell ref="K26:O30"/>
+    <mergeCell ref="P26:T30"/>
+    <mergeCell ref="U26:Y30"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AJ25:AL25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5562,80 +5562,80 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:57" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="33" t="s">
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="33" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="33" t="s">
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="33" t="s">
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="33" t="s">
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="35"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="61"/>
       <c r="BC3" s="21"/>
       <c r="BD3" s="21"/>
-      <c r="BE3" s="36"/>
+      <c r="BE3" s="49"/>
     </row>
     <row r="4" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -5801,7 +5801,7 @@
       <c r="BD4" s="1">
         <v>31</v>
       </c>
-      <c r="BE4" s="37"/>
+      <c r="BE4" s="51"/>
     </row>
     <row r="5" spans="2:57" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -5811,59 +5811,59 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="40"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="63"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="64"/>
     </row>
     <row r="6" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -5923,10 +5923,10 @@
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
-      <c r="BE6" s="36"/>
+      <c r="BE6" s="49"/>
     </row>
     <row r="7" spans="2:57" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="49" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -5991,11 +5991,11 @@
       <c r="BB7" s="9"/>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9"/>
-      <c r="BE7" s="41"/>
+      <c r="BE7" s="50"/>
     </row>
     <row r="8" spans="2:57" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -6053,11 +6053,11 @@
       <c r="BB8" s="9"/>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
-      <c r="BE8" s="41"/>
+      <c r="BE8" s="50"/>
     </row>
     <row r="9" spans="2:57" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
@@ -6115,11 +6115,11 @@
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
       <c r="BD9" s="9"/>
-      <c r="BE9" s="41"/>
+      <c r="BE9" s="50"/>
     </row>
     <row r="10" spans="2:57" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
@@ -6177,11 +6177,11 @@
       <c r="BB10" s="9"/>
       <c r="BC10" s="9"/>
       <c r="BD10" s="9"/>
-      <c r="BE10" s="41"/>
+      <c r="BE10" s="50"/>
     </row>
     <row r="11" spans="2:57" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
@@ -6239,11 +6239,11 @@
       <c r="BB11" s="9"/>
       <c r="BC11" s="9"/>
       <c r="BD11" s="9"/>
-      <c r="BE11" s="41"/>
+      <c r="BE11" s="50"/>
     </row>
     <row r="12" spans="2:57" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -6300,11 +6300,11 @@
       <c r="BB12" s="9"/>
       <c r="BC12" s="9"/>
       <c r="BD12" s="9"/>
-      <c r="BE12" s="41"/>
+      <c r="BE12" s="50"/>
     </row>
     <row r="13" spans="2:57" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
@@ -6362,11 +6362,11 @@
       <c r="BB13" s="9"/>
       <c r="BC13" s="9"/>
       <c r="BD13" s="9"/>
-      <c r="BE13" s="41"/>
+      <c r="BE13" s="50"/>
     </row>
     <row r="14" spans="2:57" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
@@ -6424,10 +6424,10 @@
       <c r="BB14" s="9"/>
       <c r="BC14" s="9"/>
       <c r="BD14" s="9"/>
-      <c r="BE14" s="41"/>
+      <c r="BE14" s="50"/>
     </row>
     <row r="15" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
@@ -6486,11 +6486,11 @@
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
       <c r="BD15" s="2"/>
-      <c r="BE15" s="41"/>
+      <c r="BE15" s="50"/>
     </row>
     <row r="16" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -6548,11 +6548,11 @@
       <c r="BB16" s="2"/>
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
-      <c r="BE16" s="41"/>
+      <c r="BE16" s="50"/>
     </row>
     <row r="17" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
@@ -6610,11 +6610,11 @@
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
       <c r="BD17" s="2"/>
-      <c r="BE17" s="41"/>
+      <c r="BE17" s="50"/>
     </row>
     <row r="18" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
@@ -6672,11 +6672,11 @@
       <c r="BB18" s="2"/>
       <c r="BC18" s="2"/>
       <c r="BD18" s="2"/>
-      <c r="BE18" s="41"/>
+      <c r="BE18" s="50"/>
     </row>
     <row r="19" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
@@ -6734,11 +6734,11 @@
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
-      <c r="BE19" s="41"/>
+      <c r="BE19" s="50"/>
     </row>
     <row r="20" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
@@ -6796,11 +6796,11 @@
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
-      <c r="BE20" s="41"/>
+      <c r="BE20" s="50"/>
     </row>
     <row r="21" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
@@ -6858,11 +6858,11 @@
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
-      <c r="BE21" s="41"/>
+      <c r="BE21" s="50"/>
     </row>
     <row r="22" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
@@ -6920,10 +6920,10 @@
       <c r="BB22" s="2"/>
       <c r="BC22" s="2"/>
       <c r="BD22" s="2"/>
-      <c r="BE22" s="41"/>
+      <c r="BE22" s="50"/>
     </row>
     <row r="23" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
@@ -6982,11 +6982,11 @@
       <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
       <c r="BD23" s="2"/>
-      <c r="BE23" s="41"/>
+      <c r="BE23" s="50"/>
     </row>
     <row r="24" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="41"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
@@ -7044,11 +7044,11 @@
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
       <c r="BD24" s="2"/>
-      <c r="BE24" s="41"/>
+      <c r="BE24" s="50"/>
     </row>
     <row r="25" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
@@ -7106,11 +7106,11 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
-      <c r="BE25" s="41"/>
+      <c r="BE25" s="50"/>
     </row>
     <row r="26" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
@@ -7168,11 +7168,11 @@
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
-      <c r="BE26" s="41"/>
+      <c r="BE26" s="50"/>
     </row>
     <row r="27" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
@@ -7230,11 +7230,11 @@
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
       <c r="BD27" s="2"/>
-      <c r="BE27" s="41"/>
+      <c r="BE27" s="50"/>
     </row>
     <row r="28" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
@@ -7292,11 +7292,11 @@
       <c r="BB28" s="2"/>
       <c r="BC28" s="2"/>
       <c r="BD28" s="2"/>
-      <c r="BE28" s="41"/>
+      <c r="BE28" s="50"/>
     </row>
     <row r="29" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="1" t="s">
         <v>48</v>
       </c>
@@ -7354,11 +7354,11 @@
       <c r="BB29" s="2"/>
       <c r="BC29" s="2"/>
       <c r="BD29" s="2"/>
-      <c r="BE29" s="41"/>
+      <c r="BE29" s="50"/>
     </row>
     <row r="30" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="1" t="s">
         <v>0</v>
       </c>
@@ -7416,10 +7416,10 @@
       <c r="BB30" s="2"/>
       <c r="BC30" s="2"/>
       <c r="BD30" s="2"/>
-      <c r="BE30" s="41"/>
+      <c r="BE30" s="50"/>
     </row>
     <row r="31" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="49" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -7480,10 +7480,10 @@
       <c r="BB31" s="2"/>
       <c r="BC31" s="2"/>
       <c r="BD31" s="2"/>
-      <c r="BE31" s="41"/>
+      <c r="BE31" s="50"/>
     </row>
     <row r="32" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
@@ -7542,11 +7542,11 @@
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
       <c r="BD32" s="2"/>
-      <c r="BE32" s="41"/>
+      <c r="BE32" s="50"/>
     </row>
     <row r="33" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
@@ -7604,11 +7604,11 @@
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
       <c r="BD33" s="2"/>
-      <c r="BE33" s="41"/>
+      <c r="BE33" s="50"/>
     </row>
     <row r="34" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
@@ -7666,11 +7666,11 @@
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
       <c r="BD34" s="2"/>
-      <c r="BE34" s="41"/>
+      <c r="BE34" s="50"/>
     </row>
     <row r="35" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
@@ -7728,11 +7728,11 @@
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
       <c r="BD35" s="2"/>
-      <c r="BE35" s="41"/>
+      <c r="BE35" s="50"/>
     </row>
     <row r="36" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
@@ -7790,11 +7790,11 @@
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
       <c r="BD36" s="2"/>
-      <c r="BE36" s="41"/>
+      <c r="BE36" s="50"/>
     </row>
     <row r="37" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
@@ -7852,11 +7852,11 @@
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
       <c r="BD37" s="2"/>
-      <c r="BE37" s="41"/>
+      <c r="BE37" s="50"/>
     </row>
     <row r="38" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="1" t="s">
         <v>48</v>
       </c>
@@ -7914,11 +7914,11 @@
       <c r="BB38" s="2"/>
       <c r="BC38" s="2"/>
       <c r="BD38" s="2"/>
-      <c r="BE38" s="41"/>
+      <c r="BE38" s="50"/>
     </row>
     <row r="39" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="41"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
@@ -7976,10 +7976,10 @@
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
       <c r="BD39" s="2"/>
-      <c r="BE39" s="41"/>
+      <c r="BE39" s="50"/>
     </row>
     <row r="40" spans="2:57" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="41"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
@@ -7996,58 +7996,58 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="45" t="s">
+      <c r="Q40" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="48" t="s">
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="49"/>
-      <c r="AB40" s="49"/>
-      <c r="AC40" s="49"/>
-      <c r="AD40" s="49"/>
-      <c r="AE40" s="49"/>
-      <c r="AF40" s="49"/>
-      <c r="AG40" s="49"/>
-      <c r="AH40" s="49"/>
-      <c r="AI40" s="49"/>
-      <c r="AJ40" s="49"/>
-      <c r="AK40" s="50"/>
-      <c r="AL40" s="51" t="s">
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="AM40" s="52"/>
-      <c r="AN40" s="52"/>
-      <c r="AO40" s="52"/>
-      <c r="AP40" s="52"/>
-      <c r="AQ40" s="52"/>
-      <c r="AR40" s="52"/>
-      <c r="AS40" s="52"/>
-      <c r="AT40" s="52"/>
-      <c r="AU40" s="52"/>
-      <c r="AV40" s="52"/>
-      <c r="AW40" s="52"/>
-      <c r="AX40" s="52"/>
-      <c r="AY40" s="53"/>
-      <c r="AZ40" s="54" t="s">
+      <c r="AM40" s="90"/>
+      <c r="AN40" s="90"/>
+      <c r="AO40" s="90"/>
+      <c r="AP40" s="90"/>
+      <c r="AQ40" s="90"/>
+      <c r="AR40" s="90"/>
+      <c r="AS40" s="90"/>
+      <c r="AT40" s="90"/>
+      <c r="AU40" s="90"/>
+      <c r="AV40" s="90"/>
+      <c r="AW40" s="90"/>
+      <c r="AX40" s="90"/>
+      <c r="AY40" s="91"/>
+      <c r="AZ40" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="BA40" s="55"/>
-      <c r="BB40" s="55"/>
-      <c r="BC40" s="56"/>
+      <c r="BA40" s="69"/>
+      <c r="BB40" s="69"/>
+      <c r="BC40" s="70"/>
       <c r="BD40" s="25"/>
-      <c r="BE40" s="41"/>
+      <c r="BE40" s="50"/>
     </row>
     <row r="41" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>4</v>
@@ -8055,7 +8055,7 @@
       <c r="E41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="49" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="1"/>
@@ -8108,10 +8108,10 @@
       <c r="BB41" s="28"/>
       <c r="BC41" s="28"/>
       <c r="BD41" s="25"/>
-      <c r="BE41" s="41"/>
+      <c r="BE41" s="50"/>
     </row>
     <row r="42" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>12</v>
@@ -8119,7 +8119,7 @@
       <c r="E42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -8170,10 +8170,10 @@
       <c r="BB42" s="28"/>
       <c r="BC42" s="28"/>
       <c r="BD42" s="25"/>
-      <c r="BE42" s="41"/>
+      <c r="BE42" s="50"/>
     </row>
     <row r="43" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="41"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>10</v>
@@ -8181,7 +8181,7 @@
       <c r="E43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -8232,10 +8232,10 @@
       <c r="BB43" s="28"/>
       <c r="BC43" s="28"/>
       <c r="BD43" s="25"/>
-      <c r="BE43" s="41"/>
+      <c r="BE43" s="50"/>
     </row>
     <row r="44" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -8243,7 +8243,7 @@
       <c r="E44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -8294,10 +8294,10 @@
       <c r="BB44" s="28"/>
       <c r="BC44" s="28"/>
       <c r="BD44" s="25"/>
-      <c r="BE44" s="41"/>
+      <c r="BE44" s="50"/>
     </row>
     <row r="45" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="41"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
         <v>6</v>
@@ -8305,7 +8305,7 @@
       <c r="E45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="41"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -8356,10 +8356,10 @@
       <c r="BB45" s="28"/>
       <c r="BC45" s="28"/>
       <c r="BD45" s="25"/>
-      <c r="BE45" s="41"/>
+      <c r="BE45" s="50"/>
     </row>
     <row r="46" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="41"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>48</v>
@@ -8367,7 +8367,7 @@
       <c r="E46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="41"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -8418,10 +8418,10 @@
       <c r="BB46" s="28"/>
       <c r="BC46" s="28"/>
       <c r="BD46" s="25"/>
-      <c r="BE46" s="41"/>
+      <c r="BE46" s="50"/>
     </row>
     <row r="47" spans="2:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>0</v>
@@ -8429,7 +8429,7 @@
       <c r="E47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="37"/>
+      <c r="F47" s="51"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -8480,7 +8480,7 @@
       <c r="BB47" s="28"/>
       <c r="BC47" s="28"/>
       <c r="BD47" s="25"/>
-      <c r="BE47" s="41"/>
+      <c r="BE47" s="50"/>
     </row>
     <row r="48" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
@@ -8542,7 +8542,7 @@
       <c r="BB48" s="20"/>
       <c r="BC48" s="20"/>
       <c r="BD48" s="31"/>
-      <c r="BE48" s="41"/>
+      <c r="BE48" s="50"/>
     </row>
     <row r="49" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -8602,69 +8602,69 @@
       <c r="BB49" s="31"/>
       <c r="BC49" s="31"/>
       <c r="BD49" s="20"/>
-      <c r="BE49" s="37"/>
+      <c r="BE49" s="51"/>
     </row>
     <row r="51" spans="2:57" x14ac:dyDescent="0.3">
       <c r="G51" s="22"/>
-      <c r="H51" s="57" t="s">
+      <c r="H51" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
     </row>
     <row r="52" spans="2:57" x14ac:dyDescent="0.3">
       <c r="G52" s="23"/>
-      <c r="H52" s="58" t="s">
+      <c r="H52" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
     </row>
     <row r="53" spans="2:57" x14ac:dyDescent="0.3">
       <c r="G53" s="24"/>
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="G5:BE5"/>
-    <mergeCell ref="BE6:BE49"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="B7:B30"/>
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="C24:C30"/>
     <mergeCell ref="B31:B47"/>
     <mergeCell ref="C33:C39"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="G5:BE5"/>
+    <mergeCell ref="BE6:BE49"/>
     <mergeCell ref="Q40:W40"/>
     <mergeCell ref="X40:AK40"/>
     <mergeCell ref="AL40:AY40"/>
     <mergeCell ref="AZ40:BC40"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="X3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
